--- a/Excel_Files/Dynamic_Range/1.5_cm/754_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/1.5_cm/754_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>211.575</v>
+        <v>9.352</v>
       </c>
       <c r="D2">
-        <v>323.068</v>
+        <v>10.079</v>
       </c>
       <c r="E2">
-        <v>487.53</v>
+        <v>13.214</v>
       </c>
       <c r="F2">
-        <v>1526.04</v>
+        <v>22.544</v>
       </c>
       <c r="G2">
-        <v>376.286</v>
+        <v>15.304</v>
       </c>
       <c r="H2">
-        <v>1846.821</v>
+        <v>23.838</v>
       </c>
       <c r="I2">
-        <v>369.967</v>
+        <v>11.717</v>
       </c>
       <c r="J2">
-        <v>735.8579999999999</v>
+        <v>13.984</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>41.223</v>
+        <v>5.551</v>
       </c>
       <c r="D3">
-        <v>130.929</v>
+        <v>6.497</v>
       </c>
       <c r="E3">
-        <v>98.238</v>
+        <v>6.883</v>
       </c>
       <c r="F3">
-        <v>130.098</v>
+        <v>9.004</v>
       </c>
       <c r="G3">
-        <v>126.76</v>
+        <v>8.923</v>
       </c>
       <c r="H3">
-        <v>163.508</v>
+        <v>8.824</v>
       </c>
       <c r="I3">
-        <v>83.651</v>
+        <v>6.932</v>
       </c>
       <c r="J3">
-        <v>62.475</v>
+        <v>7.125</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>16.603</v>
+        <v>3.682</v>
       </c>
       <c r="D4">
-        <v>29.506</v>
+        <v>4.07</v>
       </c>
       <c r="E4">
-        <v>29.06</v>
+        <v>4.203</v>
       </c>
       <c r="F4">
-        <v>22.641</v>
+        <v>4.351</v>
       </c>
       <c r="G4">
-        <v>28.127</v>
+        <v>4.843</v>
       </c>
       <c r="H4">
-        <v>34.001</v>
+        <v>4.881</v>
       </c>
       <c r="I4">
-        <v>37.513</v>
+        <v>5.127</v>
       </c>
       <c r="J4">
-        <v>11.163</v>
+        <v>3.182</v>
       </c>
     </row>
   </sheetData>
